--- a/sample.xlsx
+++ b/sample.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,21 +430,6 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>นทีService</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>นทีService</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>นฤชิตService</t>
-        </is>
-      </c>
       <c r="I1" t="inlineStr">
         <is>
           <t>วันทำการ</t>
@@ -459,17 +444,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ราเชนทร์Programmer</t>
+          <t>นฤชิตService</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>จีรวัฒน์Service</t>
+          <t>วัฒพงษ์Service</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>พลกฤตProgrammer</t>
+          <t>รณยุทธProgrammer</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -501,17 +486,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ราเชนทร์Programmer</t>
+          <t>ราเชนService</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>จีรวัฒน์Service</t>
+          <t>ราเชนService</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>พลกฤตProgrammer</t>
+          <t>สัญญาProgrammer</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -541,6 +526,21 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>นทีService</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ชานนท์Programmer</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ปรมะProgrammer</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
@@ -567,17 +567,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ปรมะProgrammer</t>
+          <t>ราเชนทร์Programmer</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>วัฒพงษ์Service</t>
+          <t>รณยุทธProgrammer</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>สุเมธร์Service</t>
+          <t>วินัยProgrammer</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ปรมะProgrammer</t>
+          <t>ชานนท์Programmer</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>วัฒพงษ์Service</t>
+          <t>นทีService</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>สุเมธร์Service</t>
+          <t>สัญญาProgrammer</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -646,6 +646,21 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>พลกฤตProgrammer</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>จีรวัฒน์Service</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ภูวเนตรProgrammer</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>ปรมะ</t>
@@ -672,17 +687,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>รณยุทธProgrammer</t>
+          <t>นฤชิตService</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ชานนท์Programmer</t>
+          <t>จีรวัฒน์Service</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ภูวเนตรProgrammer</t>
+          <t>ราเชนทร์Programmer</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -711,17 +726,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>รณยุทธProgrammer</t>
+          <t>สุเมธร์Service</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ชานนท์Programmer</t>
+          <t>วัฒพงษ์Service</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ภูวเนตรProgrammer</t>
+          <t>วินัยProgrammer</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -777,19 +792,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>นฤชิตService</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>รณยุทธProgrammer</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>สัญญาProgrammer</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์Service</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>นทีService</t>
-        </is>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
@@ -799,13 +814,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -816,17 +831,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>สัญญาProgrammer</t>
+          <t>วัฒพงษ์Service</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>จีรวัฒน์Service</t>
+          <t>ราเชนService</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>นทีService</t>
+          <t>ปรมะProgrammer</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -865,13 +880,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -882,17 +897,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>สุเมธร์Service</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>ราเชนService</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>พลกฤตProgrammer</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>วินัยProgrammer</t>
+          <t>นทีService</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -921,17 +936,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ราเชนService</t>
+          <t>รณยุทธProgrammer</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>พลกฤตProgrammer</t>
+          <t>ภูวเนตรProgrammer</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>วินัยProgrammer</t>
+          <t>ปรมะProgrammer</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -987,17 +1002,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>วัฒพงษ์Service</t>
+          <t>พลกฤตProgrammer</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>จีรวัฒน์Service</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>นฤชิตService</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ปรมะProgrammer</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1024,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>สัญญาProgrammer</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>สุเมธร์Service</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>วัฒพงษ์Service</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>นฤชิตService</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ปรมะProgrammer</t>
         </is>
       </c>
     </row>
@@ -1032,21 +1047,6 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์Service</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>ราเชนทร์Programmer</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>รณยุทธProgrammer</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
@@ -1056,17 +1056,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ภูวเนตรProgrammer</t>
+          <t>นฤชิตService</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ชานนท์Programmer</t>
+          <t>ราเชนService</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>นทีService</t>
+          <t>วัฒพงษ์Service</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1083,17 +1083,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>พลกฤตProgrammer</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>ภูวเนตรProgrammer</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>ชานนท์Programmer</t>
-        </is>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>นทีService</t>
+          <t>รณยุทธProgrammer</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1126,21 +1126,6 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>ราเชนทร์Programmer</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>จีรวัฒน์Service</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>พลกฤตProgrammer</t>
-        </is>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
           <t>ภูวเนตร</t>
@@ -1167,35 +1152,35 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>ราเชนService</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>สุเมธร์Service</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>สัญญาProgrammer</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>ราเชนService</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>วินัยProgrammer</t>
-        </is>
-      </c>
       <c r="G23" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1206,12 +1191,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>สัญญาProgrammer</t>
+          <t>รณยุทธProgrammer</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ราเชนService</t>
+          <t>ชานนท์Programmer</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1225,16 +1210,16 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1246,13 +1231,28 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>นฤชิตService</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>นทีService</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>สัญญาProgrammer</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
           <t>ชานนท์</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -1261,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1272,17 +1272,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ปรมะProgrammer</t>
+          <t>ภูวเนตรProgrammer</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>นฤชิตService</t>
+          <t>จีรวัฒน์Service</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>สุเมธร์Service</t>
+          <t>พลกฤตProgrammer</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1311,17 +1311,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ปรมะProgrammer</t>
+          <t>จีรวัฒน์Service</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>นฤชิตService</t>
+          <t>วินัยProgrammer</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>สุเมธร์Service</t>
+          <t>ราเชนทร์Programmer</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1333,13 +1333,13 @@
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1351,6 +1351,21 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>วัฒพงษ์Service</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ราเชนService</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>พลกฤตProgrammer</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
           <t>วินัย</t>
@@ -1360,13 +1375,13 @@
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1377,12 +1392,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>วัฒพงษ์Service</t>
+          <t>นทีService</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ชานนท์Programmer</t>
+          <t>ปรมะProgrammer</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1416,17 +1431,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>วัฒพงษ์Service</t>
+          <t>รณยุทธProgrammer</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>นฤชิตService</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>ชานนท์Programmer</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>ภูวเนตรProgrammer</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1462,16 +1477,16 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1482,35 +1497,35 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>สัญญาProgrammer</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ชานนท์Programmer</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>ราเชนทร์Programmer</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>พลกฤตProgrammer</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>ราเชนService</t>
-        </is>
-      </c>
       <c r="G32" t="inlineStr">
         <is>
           <t>นฤชิต</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -1521,17 +1536,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ราเชนทร์Programmer</t>
+          <t>วินัยProgrammer</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>พลกฤตProgrammer</t>
+          <t>สุเมธร์Service</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ราเชนService</t>
+          <t>สุเมธร์Service</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1540,7 +1555,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>2</v>
@@ -1549,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -1573,10 +1588,10 @@
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -1587,17 +1602,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>สุเมธร์Service</t>
+          <t>รณยุทธProgrammer</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>รณยุทธProgrammer</t>
+          <t>ภูวเนตรProgrammer</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>นทีService</t>
+          <t>ปรมะProgrammer</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1612,10 +1627,10 @@
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -1626,17 +1641,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>สุเมธร์Service</t>
+          <t>สัญญาProgrammer</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>รณยุทธProgrammer</t>
+          <t>นฤชิตService</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>นทีService</t>
+          <t>จีรวัฒน์Service</t>
         </is>
       </c>
     </row>
@@ -1658,17 +1673,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>สัญญาProgrammer</t>
+          <t>วัฒพงษ์Service</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>นฤชิตService</t>
+          <t>ราเชนทร์Programmer</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>จีรวัฒน์Service</t>
+          <t>วินัยProgrammer</t>
         </is>
       </c>
     </row>
@@ -1680,17 +1695,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>สัญญาProgrammer</t>
+          <t>ชานนท์Programmer</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>นฤชิตService</t>
+          <t>รณยุทธProgrammer</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>จีรวัฒน์Service</t>
+          <t>นทีService</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -1708,21 +1723,6 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>พลกฤตProgrammer</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>พลกฤตProgrammer</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>ราเชนService</t>
-        </is>
-      </c>
       <c r="H40" t="inlineStr">
         <is>
           <t>เช้า (08.00 - 16.00)</t>
@@ -1752,17 +1752,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>จีรวัฒน์Service</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>วินัยProgrammer</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>ราเชนทร์Programmer</t>
-        </is>
-      </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ชานนท์Programmer</t>
+          <t>วัฒพงษ์Service</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
         <v>2</v>
       </c>
       <c r="K41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>วินัยProgrammer</t>
+          <t>พลกฤตProgrammer</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ราเชนทร์Programmer</t>
+          <t>ภูวเนตรProgrammer</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ชานนท์Programmer</t>
+          <t>พลกฤตProgrammer</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1816,10 +1816,10 @@
         <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -1831,21 +1831,6 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>ราเชนService</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>สุเมธร์Service</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>สุเมธร์Service</t>
-        </is>
-      </c>
       <c r="G43" t="inlineStr">
         <is>
           <t>พลกฤต</t>
@@ -1855,13 +1840,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -1872,17 +1857,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>นทีService</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>ปรมะProgrammer</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์Service</t>
-        </is>
-      </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ภูวเนตรProgrammer</t>
+          <t>ราเชนทร์Programmer</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1911,17 +1896,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ปรมะProgrammer</t>
+          <t>สุเมธร์Service</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>วัฒพงษ์Service</t>
+          <t>จีรวัฒน์Service</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ภูวเนตรProgrammer</t>
+          <t>นฤชิตService</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -1933,13 +1918,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
         <v>2</v>
       </c>
       <c r="K45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -1951,6 +1936,21 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>รณยุทธProgrammer</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>ภูวเนตรProgrammer</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>วินัยProgrammer</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
           <t>สัญญา</t>
@@ -1963,10 +1963,10 @@
         <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>จีรวัฒน์Service</t>
+          <t>ชานนท์Programmer</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>นฤชิตService</t>
+          <t>ชานนท์Programmer</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -1999,13 +1999,13 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>จีรวัฒน์Service</t>
+          <t>ราเชนทร์Programmer</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>นฤชิตService</t>
+          <t>ราเชนService</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2038,13 +2038,13 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -2056,6 +2056,21 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>สุเมธร์Service</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>ปรมะProgrammer</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ราเชนService</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr">
         <is>
           <t>วัฒพงษ์</t>
@@ -2065,13 +2080,13 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -2087,12 +2102,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>ราเชนทร์Programmer</t>
+          <t>วินัยProgrammer</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>วินัยProgrammer</t>
+          <t>รณยุทธProgrammer</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2126,12 +2141,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ราเชนทร์Programmer</t>
+          <t>นฤชิตService</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>วินัยProgrammer</t>
+          <t>วัฒพงษ์Service</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2170,13 +2185,13 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -2187,17 +2202,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ภูวเนตรProgrammer</t>
+          <t>นทีService</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>รณยุทธProgrammer</t>
+          <t>จีรวัฒน์Service</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ปรมะProgrammer</t>
+          <t>สุเมธร์Service</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2226,17 +2241,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ภูวเนตรProgrammer</t>
+          <t>ปรมะProgrammer</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>รณยุทธProgrammer</t>
+          <t>วัฒพงษ์Service</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ปรมะProgrammer</t>
+          <t>นทีService</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2275,12 +2290,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ราเชนService</t>
+          <t>ราเชนทร์Programmer</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>นฤชิตService</t>
+          <t>ชานนท์Programmer</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2297,17 +2312,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ราเชนService</t>
+          <t>วินัยProgrammer</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>นฤชิตService</t>
+          <t>ราเชนทร์Programmer</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ชานนท์Programmer</t>
+          <t>ภูวเนตรProgrammer</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2349,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ราเชนทร์Programmer</t>
+          <t>ปรมะProgrammer</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2344,7 +2359,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>สัญญาProgrammer</t>
+          <t>พลกฤตProgrammer</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2376,17 +2391,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ราเชนทร์Programmer</t>
+          <t>จีรวัฒน์Service</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>วินัยProgrammer</t>
+          <t>วัฒพงษ์Service</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>สัญญาProgrammer</t>
+          <t>ภูวเนตรProgrammer</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2416,21 +2431,6 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>ปรมะProgrammer</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>ภูวเนตรProgrammer</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>ปรมะProgrammer</t>
-        </is>
-      </c>
       <c r="G61" t="inlineStr">
         <is>
           <t>ราเชนทร์</t>
@@ -2440,13 +2440,13 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -2457,19 +2457,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>พลกฤตProgrammer</t>
+          <t>ปรมะProgrammer</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>สัญญาProgrammer</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>จีรวัฒน์Service</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>สุเมธร์Service</t>
-        </is>
-      </c>
       <c r="G62" t="inlineStr">
         <is>
           <t>พลกฤต</t>
@@ -2482,10 +2482,10 @@
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -2496,17 +2496,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>พลกฤตProgrammer</t>
+          <t>สัญญาProgrammer</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>จีรวัฒน์Service</t>
+          <t>นทีService</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>สุเมธร์Service</t>
+          <t>วัฒพงษ์Service</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -2524,7 +2524,7 @@
         <v>1</v>
       </c>
       <c r="K63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -2536,21 +2536,6 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>ชานนท์Programmer</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>นฤชิตService</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>ภูวเนตรProgrammer</t>
-        </is>
-      </c>
       <c r="G64" t="inlineStr">
         <is>
           <t>ปรมะ</t>
@@ -2560,13 +2545,13 @@
         <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -2582,12 +2567,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>ราเชนService</t>
+          <t>สุเมธร์Service</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>วัฒพงษ์Service</t>
+          <t>พลกฤตProgrammer</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2602,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -2616,17 +2601,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>รณยุทธProgrammer</t>
+          <t>นทีService</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ราเชนService</t>
+          <t>ราเชนทร์Programmer</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>วัฒพงษ์Service</t>
+          <t>ชานนท์Programmer</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2656,6 +2641,21 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>วินัยProgrammer</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>ราเชนService</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>ชานนท์Programmer</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr">
         <is>
           <t>รณยุทธ</t>
@@ -2665,13 +2665,13 @@
         <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -2682,17 +2682,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>ราเชนทร์Programmer</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>วินัยProgrammer</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>นทีService</t>
-        </is>
-      </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ราเชนทร์Programmer</t>
+          <t>วัฒพงษ์Service</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2721,17 +2721,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>วินัยProgrammer</t>
+          <t>ปรมะProgrammer</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>นทีService</t>
+          <t>ภูวเนตรProgrammer</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ราเชนทร์Programmer</t>
+          <t>ภูวเนตรProgrammer</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -2743,13 +2743,13 @@
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -2761,6 +2761,21 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>สัญญาProgrammer</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>นฤชิตService</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>นฤชิตService</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr">
         <is>
           <t>นฤชิต</t>
@@ -2787,17 +2802,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>สุเมธร์Service</t>
+          <t>สัญญาProgrammer</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>จีรวัฒน์Service</t>
+          <t>วัฒพงษ์Service</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>พลกฤตProgrammer</t>
+          <t>ราเชนService</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2809,13 +2824,13 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2836,7 +2851,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>พลกฤตProgrammer</t>
+          <t>ปรมะProgrammer</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -2845,16 +2860,16 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2875,13 +2890,13 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2892,17 +2907,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ปรมะProgrammer</t>
+          <t>ชานนท์Programmer</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>วัฒพงษ์Service</t>
+          <t>ราเชนทร์Programmer</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>สัญญาProgrammer</t>
+          <t>จีรวัฒน์Service</t>
         </is>
       </c>
     </row>
@@ -2914,17 +2929,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ปรมะProgrammer</t>
+          <t>นทีService</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>วัฒพงษ์Service</t>
+          <t>พลกฤตProgrammer</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>สัญญาProgrammer</t>
+          <t>พลกฤตProgrammer</t>
         </is>
       </c>
     </row>
@@ -2946,17 +2961,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>นทีService</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>ภูวเนตรProgrammer</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>นทีService</t>
-        </is>
-      </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>รณยุทธProgrammer</t>
+          <t>ภูวเนตรProgrammer</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -2973,17 +2988,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>ภูวเนตรProgrammer</t>
+          <t>ชานนท์Programmer</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>นทีService</t>
+          <t>ปรมะProgrammer</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>รณยุทธProgrammer</t>
+          <t>ราเชนทร์Programmer</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3028,10 +3043,10 @@
         <v>6</v>
       </c>
       <c r="J79" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K79" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
@@ -3042,17 +3057,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ราเชนService</t>
+          <t>วินัยProgrammer</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>ชานนท์Programmer</t>
+          <t>สัญญาProgrammer</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ราเชนทร์Programmer</t>
+          <t>สุเมธร์Service</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3067,10 +3082,10 @@
         <v>6</v>
       </c>
       <c r="J80" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K80" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81">
@@ -3081,17 +3096,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>ราเชนService</t>
+          <t>วินัยProgrammer</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>ชานนท์Programmer</t>
+          <t>ปรมะProgrammer</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ราเชนทร์Programmer</t>
+          <t>จีรวัฒน์Service</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3103,13 +3118,13 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J81" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K81" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
@@ -3121,21 +3136,6 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>วินัยProgrammer</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>วัฒพงษ์Service</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>วินัยProgrammer</t>
-        </is>
-      </c>
       <c r="G82" t="inlineStr">
         <is>
           <t>ชานนท์</t>
@@ -3145,13 +3145,13 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J82" t="n">
         <v>8</v>
       </c>
       <c r="K82" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83">
@@ -3167,12 +3167,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>นฤชิตService</t>
+          <t>วัฒพงษ์Service</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ปรมะProgrammer</t>
+          <t>นทีService</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3184,13 +3184,13 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J83" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K83" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84">
@@ -3201,17 +3201,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>พลกฤตProgrammer</t>
+          <t>จีรวัฒน์Service</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>นฤชิตService</t>
+          <t>ราเชนทร์Programmer</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ปรมะProgrammer</t>
+          <t>สุเมธร์Service</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3223,13 +3223,13 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J84" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K84" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
@@ -3241,21 +3241,6 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>สัญญาProgrammer</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>รณยุทธProgrammer</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>สัญญาProgrammer</t>
-        </is>
-      </c>
       <c r="G85" t="inlineStr">
         <is>
           <t>วินัย</t>
@@ -3265,13 +3250,13 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J85" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K85" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86">
@@ -3282,17 +3267,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>สุเมธร์Service</t>
+          <t>ภูวเนตรProgrammer</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>นทีService</t>
+          <t>พลกฤตProgrammer</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>จีรวัฒน์Service</t>
+          <t>ราเชนService</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3304,10 +3289,10 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J86" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K86" t="n">
         <v>14</v>
@@ -3321,17 +3306,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>สุเมธร์Service</t>
+          <t>นฤชิตService</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>นทีService</t>
+          <t>นฤชิตService</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>จีรวัฒน์Service</t>
+          <t>ราเชนService</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3361,6 +3346,21 @@
           <t>เช้า (08.00 - 16.00)</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>ชานนท์Programmer</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>ราเชนทร์Programmer</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>รณยุทธProgrammer</t>
+        </is>
+      </c>
       <c r="G88" t="inlineStr">
         <is>
           <t>ราเชน</t>
@@ -3370,13 +3370,13 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J88" t="n">
         <v>8</v>
       </c>
       <c r="K88" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89">
@@ -3392,12 +3392,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>ภูวเนตรProgrammer</t>
+          <t>ราเชนService</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>วัฒพงษ์Service</t>
+          <t>สุเมธร์Service</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -3409,10 +3409,10 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J89" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K89" t="n">
         <v>14</v>
@@ -3426,17 +3426,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>สุเมธร์Service</t>
+          <t>ราเชนService</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>ภูวเนตรProgrammer</t>
+          <t>นทีService</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>วัฒพงษ์Service</t>
+          <t>รณยุทธProgrammer</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -3448,24 +3448,16 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J90" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K90" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>31</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>เช้า (08.00 - 16.00)</t>
-        </is>
-      </c>
       <c r="G91" t="inlineStr">
         <is>
           <t>สุเมธร์</t>
@@ -3475,36 +3467,16 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J91" t="n">
         <v>10</v>
       </c>
       <c r="K91" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>บ่าย (16.00-24.00)</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>วินัยProgrammer</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>นทีService</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>รณยุทธProgrammer</t>
-        </is>
-      </c>
       <c r="G92" t="inlineStr">
         <is>
           <t>นที</t>
@@ -3514,35 +3486,13 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J92" t="n">
         <v>10</v>
       </c>
       <c r="K92" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>ดึก (24.00-8.00)</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>วินัยProgrammer</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>นทีService</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>รณยุทธProgrammer</t>
-        </is>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
